--- a/Team-Data/2013-14/2-13-2013-14.xlsx
+++ b/Team-Data/2013-14/2-13-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>0.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE2" t="n">
         <v>14</v>
@@ -756,7 +823,7 @@
         <v>14</v>
       </c>
       <c r="AH2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
@@ -813,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-13-2013-14</t>
+          <t>2014-02-13</t>
         </is>
       </c>
     </row>
@@ -926,13 +993,13 @@
         <v>-3.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>24</v>
       </c>
       <c r="AF3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
         <v>25</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-13-2013-14</t>
+          <t>2014-02-13</t>
         </is>
       </c>
     </row>
@@ -1030,58 +1097,58 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
         <v>24</v>
       </c>
       <c r="F4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" t="n">
-        <v>0.471</v>
+        <v>0.48</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35.2</v>
+        <v>35.4</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3</v>
+        <v>78.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L4" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M4" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="N4" t="n">
-        <v>0.366</v>
+        <v>0.368</v>
       </c>
       <c r="O4" t="n">
         <v>18.7</v>
       </c>
       <c r="P4" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.762</v>
+        <v>0.764</v>
       </c>
       <c r="R4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T4" t="n">
-        <v>39.1</v>
+        <v>39.4</v>
       </c>
       <c r="U4" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="V4" t="n">
         <v>14.5</v>
@@ -1093,7 +1160,7 @@
         <v>4.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z4" t="n">
         <v>22.2</v>
@@ -1102,22 +1169,22 @@
         <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.2</v>
+        <v>97.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.3</v>
+        <v>-2</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AE4" t="n">
         <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH4" t="n">
         <v>7</v>
@@ -1138,13 +1205,13 @@
         <v>13</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO4" t="n">
         <v>9</v>
       </c>
       <c r="AP4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ4" t="n">
         <v>15</v>
@@ -1159,7 +1226,7 @@
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV4" t="n">
         <v>11</v>
@@ -1180,10 +1247,10 @@
         <v>11</v>
       </c>
       <c r="BB4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-13-2013-14</t>
+          <t>2014-02-13</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1393,7 @@
         <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ5" t="n">
         <v>27</v>
@@ -1341,7 +1408,7 @@
         <v>23</v>
       </c>
       <c r="AU5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-13-2013-14</t>
+          <t>2014-02-13</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" t="n">
         <v>25</v>
       </c>
       <c r="G6" t="n">
-        <v>0.519</v>
+        <v>0.51</v>
       </c>
       <c r="H6" t="n">
         <v>48.8</v>
@@ -1412,19 +1479,19 @@
         <v>34.3</v>
       </c>
       <c r="J6" t="n">
-        <v>80.59999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.425</v>
+        <v>0.424</v>
       </c>
       <c r="L6" t="n">
         <v>5.9</v>
       </c>
       <c r="M6" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.335</v>
+        <v>0.336</v>
       </c>
       <c r="O6" t="n">
         <v>17.8</v>
@@ -1433,34 +1500,34 @@
         <v>23.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="R6" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S6" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="T6" t="n">
         <v>44.8</v>
       </c>
       <c r="U6" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V6" t="n">
         <v>15.7</v>
       </c>
       <c r="W6" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X6" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
         <v>21.1</v>
@@ -1469,10 +1536,10 @@
         <v>92.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1493,7 +1560,7 @@
         <v>27</v>
       </c>
       <c r="AK6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
         <v>28</v>
@@ -1523,7 +1590,7 @@
         <v>9</v>
       </c>
       <c r="AU6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV6" t="n">
         <v>26</v>
@@ -1547,7 +1614,7 @@
         <v>30</v>
       </c>
       <c r="BC6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-13-2013-14</t>
+          <t>2014-02-13</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1742,7 @@
         <v>5</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL7" t="n">
         <v>19</v>
@@ -1684,7 +1751,7 @@
         <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO7" t="n">
         <v>19</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-13-2013-14</t>
+          <t>2014-02-13</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-13-2013-14</t>
+          <t>2014-02-13</t>
         </is>
       </c>
     </row>
@@ -2018,16 +2085,16 @@
         <v>-1.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE9" t="n">
         <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH9" t="n">
         <v>30</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-13-2013-14</t>
+          <t>2014-02-13</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-2</v>
       </c>
       <c r="AD10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-13-2013-14</t>
+          <t>2014-02-13</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-13-2013-14</t>
+          <t>2014-02-13</t>
         </is>
       </c>
     </row>
@@ -2630,7 +2697,7 @@
         <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-13-2013-14</t>
+          <t>2014-02-13</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE13" t="n">
         <v>2</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-13-2013-14</t>
+          <t>2014-02-13</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-13-2013-14</t>
+          <t>2014-02-13</t>
         </is>
       </c>
     </row>
@@ -3032,22 +3099,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" t="n">
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" t="n">
-        <v>0.34</v>
+        <v>0.346</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J15" t="n">
         <v>84</v>
@@ -3056,37 +3123,37 @@
         <v>0.442</v>
       </c>
       <c r="L15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="M15" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="N15" t="n">
         <v>0.371</v>
       </c>
       <c r="O15" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P15" t="n">
         <v>22.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.755</v>
+        <v>0.758</v>
       </c>
       <c r="R15" t="n">
         <v>9.5</v>
       </c>
       <c r="S15" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T15" t="n">
         <v>42.4</v>
       </c>
       <c r="U15" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="V15" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W15" t="n">
         <v>6.6</v>
@@ -3095,7 +3162,7 @@
         <v>5.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z15" t="n">
         <v>20.1</v>
@@ -3104,13 +3171,13 @@
         <v>19.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="AC15" t="n">
         <v>-5.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3125,7 +3192,7 @@
         <v>27</v>
       </c>
       <c r="AI15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="n">
         <v>10</v>
@@ -3137,7 +3204,7 @@
         <v>5</v>
       </c>
       <c r="AM15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN15" t="n">
         <v>8</v>
@@ -3149,13 +3216,13 @@
         <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR15" t="n">
         <v>24</v>
       </c>
       <c r="AS15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT15" t="n">
         <v>20</v>
@@ -3164,7 +3231,7 @@
         <v>8</v>
       </c>
       <c r="AV15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AW15" t="n">
         <v>28</v>
@@ -3173,13 +3240,13 @@
         <v>6</v>
       </c>
       <c r="AY15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB15" t="n">
         <v>15</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-13-2013-14</t>
+          <t>2014-02-13</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-13-2013-14</t>
+          <t>2014-02-13</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>5.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3486,7 +3553,7 @@
         <v>3</v>
       </c>
       <c r="AH17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>6</v>
@@ -3501,7 +3568,7 @@
         <v>11</v>
       </c>
       <c r="AM17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN17" t="n">
         <v>10</v>
@@ -3513,7 +3580,7 @@
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3528,7 +3595,7 @@
         <v>5</v>
       </c>
       <c r="AV17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-13-2013-14</t>
+          <t>2014-02-13</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-9.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3683,7 +3750,7 @@
         <v>18</v>
       </c>
       <c r="AM18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN18" t="n">
         <v>18</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-13-2013-14</t>
+          <t>2014-02-13</t>
         </is>
       </c>
     </row>
@@ -3847,7 +3914,7 @@
         <v>18</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
         <v>25</v>
@@ -3883,7 +3950,7 @@
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-13-2013-14</t>
+          <t>2014-02-13</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE20" t="n">
         <v>19</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-13-2013-14</t>
+          <t>2014-02-13</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
@@ -4232,7 +4299,7 @@
         <v>6</v>
       </c>
       <c r="AN21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4274,7 +4341,7 @@
         <v>22</v>
       </c>
       <c r="BB21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC21" t="n">
         <v>19</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-13-2013-14</t>
+          <t>2014-02-13</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" t="n">
         <v>12</v>
       </c>
       <c r="G22" t="n">
-        <v>0.782</v>
+        <v>0.778</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
@@ -4324,37 +4391,37 @@
         <v>39.1</v>
       </c>
       <c r="J22" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K22" t="n">
-        <v>0.475</v>
+        <v>0.476</v>
       </c>
       <c r="L22" t="n">
         <v>7.4</v>
       </c>
       <c r="M22" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.358</v>
+        <v>0.36</v>
       </c>
       <c r="O22" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="P22" t="n">
         <v>24.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.804</v>
+        <v>0.802</v>
       </c>
       <c r="R22" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S22" t="n">
         <v>34.4</v>
       </c>
       <c r="T22" t="n">
-        <v>45.4</v>
+        <v>45.5</v>
       </c>
       <c r="U22" t="n">
         <v>21.6</v>
@@ -4363,7 +4430,7 @@
         <v>15.7</v>
       </c>
       <c r="W22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X22" t="n">
         <v>6.2</v>
@@ -4372,19 +4439,19 @@
         <v>3.8</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AA22" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>105</v>
+        <v>104.9</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4402,7 +4469,7 @@
         <v>4</v>
       </c>
       <c r="AJ22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK22" t="n">
         <v>3</v>
@@ -4411,10 +4478,10 @@
         <v>17</v>
       </c>
       <c r="AM22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4426,7 +4493,7 @@
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-13-2013-14</t>
+          <t>2014-02-13</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-5.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4584,7 +4651,7 @@
         <v>24</v>
       </c>
       <c r="AJ23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK23" t="n">
         <v>21</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-13-2013-14</t>
+          <t>2014-02-13</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-10.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4799,7 +4866,7 @@
         <v>10</v>
       </c>
       <c r="AU24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-13-2013-14</t>
+          <t>2014-02-13</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>3.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
@@ -4984,7 +5051,7 @@
         <v>30</v>
       </c>
       <c r="AV25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-13-2013-14</t>
+          <t>2014-02-13</t>
         </is>
       </c>
     </row>
@@ -5139,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="AM26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN26" t="n">
         <v>4</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-13-2013-14</t>
+          <t>2014-02-13</t>
         </is>
       </c>
     </row>
@@ -5300,16 +5367,16 @@
         <v>26</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH27" t="n">
         <v>12</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ27" t="n">
         <v>14</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-13-2013-14</t>
+          <t>2014-02-13</t>
         </is>
       </c>
     </row>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-13-2013-14</t>
+          <t>2014-02-13</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>2.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -5721,7 +5788,7 @@
         <v>23</v>
       </c>
       <c r="AY29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ29" t="n">
         <v>28</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-13-2013-14</t>
+          <t>2014-02-13</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-5.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE30" t="n">
         <v>24</v>
@@ -5882,7 +5949,7 @@
         <v>20</v>
       </c>
       <c r="AR30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS30" t="n">
         <v>23</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-13-2013-14</t>
+          <t>2014-02-13</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-0.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
       </c>
       <c r="AF31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG31" t="n">
         <v>15</v>
@@ -6097,7 +6164,7 @@
         <v>19</v>
       </c>
       <c r="BC31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-13-2013-14</t>
+          <t>2014-02-13</t>
         </is>
       </c>
     </row>
